--- a/biology/Zoologie/Charinus_caribensis/Charinus_caribensis.xlsx
+++ b/biology/Zoologie/Charinus_caribensis/Charinus_caribensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charinus caribensis est une espèce d'amblypyges de la famille des Charinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Jamaïque[1]. Elle se rencontre dans la paroisse de Sainte-Catherine.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Jamaïque. Elle se rencontre dans la paroisse de Sainte-Catherine.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle décrit par Miranda, Giupponi, Prendini et Scharff en 2021 mesure 1,94 mm de long sur 2,20 mm et celle des femelles de 1,72 à 2,20 mm de long sur de 2,32 à 3,00 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle décrit par Miranda, Giupponi, Prendini et Scharff en 2021 mesure 1,94 mm de long sur 2,20 mm et celle des femelles de 1,72 à 2,20 mm de long sur de 2,32 à 3,00 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Tricharinus caribensis par Quintero en 1986. Elle est placée dans le genre Charinus par Weygoldt en 2000[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Tricharinus caribensis par Quintero en 1986. Elle est placée dans le genre Charinus par Weygoldt en 2000.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de caribe et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, les Caraïbes.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Quintero, 1986 : « Revision de la clasificacion de amblypygidos pulvinados: creacion de subordenes, una nueva familia y un nuevo genero con tres nuevas especies (Arachnida: Amblypygi). » Proceedings of the Ninth International Congress of Arachnology, Panama 1983, Smithsonian Institution Press, Washington &amp; London, vol. 69, p. 203-212.</t>
         </is>
